--- a/Design/테이블/GameScript.xlsx
+++ b/Design/테이블/GameScript.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,7 +34,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GuildFull</t>
+    <t>GaugeSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurnSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -496,7 +512,39 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>20</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
